--- a/记账小本本.xlsx
+++ b/记账小本本.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l00383602\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\l00383602\github\pay-the-bill\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="对象设计" sheetId="2" r:id="rId2"/>
+    <sheet name="接口" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>需求列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手工记账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导出excel读取存储</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,6 +82,102 @@
   </si>
   <si>
     <t>投资前自动判断，是否还款有风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资到期提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金池 Pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashFlow对象构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;CashFlow&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashFlow</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isIncome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据isIncome来判断是：
+回款时间 || 还款时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 活期
+2 投资
+3 现金
+4 收入
+5 支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析是否可以投资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,79 +193,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投资到期提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 只有收入
-2 只有支出
-3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TODO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 收入 &amp;&amp; 支出</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金池 Pool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CashFlow对象构成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;CashFlow&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CashFlow</t>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 活期
-2 投资
-3 现金
-4 支出</t>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个账单日记录，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工excel记账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单日提醒查看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,14 +236,6 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -525,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -562,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -570,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -578,10 +607,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -589,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -597,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -605,33 +634,41 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B11">
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -647,10 +684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -662,43 +699,112 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
